--- a/2022/Symphony/February/14.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/14.02.2022/MC Bank Statement February-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1308,6 +1308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2108,7 +2114,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2880,9 +2886,6 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,6 +2992,27 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3000,12 +3024,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3038,6 +3056,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3088,6 +3112,15 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3136,35 +3169,38 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="43" fillId="42" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="37" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="37" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="37" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3840,33 +3876,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="306"/>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
+      <c r="A1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="307"/>
-      <c r="B2" s="304" t="s">
+      <c r="A2" s="313"/>
+      <c r="B2" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="307"/>
-      <c r="B3" s="305" t="s">
+      <c r="A3" s="313"/>
+      <c r="B3" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="307"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3884,7 +3920,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="307"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3902,7 +3938,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="307"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3914,7 +3950,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="307"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
@@ -3933,7 +3969,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="307"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
@@ -3952,7 +3988,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="307"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="26" t="s">
         <v>63</v>
       </c>
@@ -3971,7 +4007,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="307"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="26" t="s">
         <v>64</v>
       </c>
@@ -3990,7 +4026,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="307"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="26" t="s">
         <v>65</v>
       </c>
@@ -4009,7 +4045,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="307"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="26" t="s">
         <v>66</v>
       </c>
@@ -4028,7 +4064,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="307"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="26" t="s">
         <v>67</v>
       </c>
@@ -4047,7 +4083,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="307"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="26" t="s">
         <v>68</v>
       </c>
@@ -4066,7 +4102,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="307"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="26" t="s">
         <v>69</v>
       </c>
@@ -4085,7 +4121,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="307"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4098,7 +4134,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="307"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4111,7 +4147,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="307"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4124,7 +4160,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="307"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4137,7 +4173,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="307"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4150,7 +4186,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="307"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4163,7 +4199,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="307"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4176,7 +4212,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="307"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4189,7 +4225,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="307"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4202,7 +4238,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="307"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4215,7 +4251,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="307"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4228,7 +4264,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="307"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4241,7 +4277,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="307"/>
+      <c r="A28" s="313"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4254,7 +4290,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="307"/>
+      <c r="A29" s="313"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4267,7 +4303,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="307"/>
+      <c r="A30" s="313"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4280,7 +4316,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="307"/>
+      <c r="A31" s="313"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4293,7 +4329,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="307"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4306,7 +4342,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="307"/>
+      <c r="A33" s="313"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4319,7 +4355,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="307"/>
+      <c r="A34" s="313"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4332,7 +4368,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="307"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4345,7 +4381,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="307"/>
+      <c r="A36" s="313"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4358,7 +4394,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="307"/>
+      <c r="A37" s="313"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4371,7 +4407,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="307"/>
+      <c r="A38" s="313"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4384,7 +4420,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="307"/>
+      <c r="A39" s="313"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4397,7 +4433,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="307"/>
+      <c r="A40" s="313"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4410,7 +4446,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="307"/>
+      <c r="A41" s="313"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4423,7 +4459,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="307"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4436,7 +4472,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="307"/>
+      <c r="A43" s="313"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4449,7 +4485,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="307"/>
+      <c r="A44" s="313"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4462,7 +4498,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="307"/>
+      <c r="A45" s="313"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4475,7 +4511,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="307"/>
+      <c r="A46" s="313"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4488,7 +4524,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="307"/>
+      <c r="A47" s="313"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4501,7 +4537,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="307"/>
+      <c r="A48" s="313"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4514,7 +4550,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="307"/>
+      <c r="A49" s="313"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4527,7 +4563,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="307"/>
+      <c r="A50" s="313"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4540,7 +4576,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="307"/>
+      <c r="A51" s="313"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4553,7 +4589,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="307"/>
+      <c r="A52" s="313"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4566,7 +4602,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="307"/>
+      <c r="A53" s="313"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4579,7 +4615,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="307"/>
+      <c r="A54" s="313"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4592,7 +4628,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="307"/>
+      <c r="A55" s="313"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4604,7 +4640,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="307"/>
+      <c r="A56" s="313"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4616,7 +4652,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="307"/>
+      <c r="A57" s="313"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4628,7 +4664,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="307"/>
+      <c r="A58" s="313"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4640,7 +4676,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="307"/>
+      <c r="A59" s="313"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4652,7 +4688,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="307"/>
+      <c r="A60" s="313"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4664,7 +4700,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="307"/>
+      <c r="A61" s="313"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4676,7 +4712,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="307"/>
+      <c r="A62" s="313"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4688,7 +4724,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="307"/>
+      <c r="A63" s="313"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4700,7 +4736,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="307"/>
+      <c r="A64" s="313"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4712,7 +4748,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="307"/>
+      <c r="A65" s="313"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4724,7 +4760,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="307"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4736,7 +4772,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="307"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4748,7 +4784,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="307"/>
+      <c r="A68" s="313"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4760,7 +4796,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="307"/>
+      <c r="A69" s="313"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4772,7 +4808,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="307"/>
+      <c r="A70" s="313"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4784,7 +4820,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="307"/>
+      <c r="A71" s="313"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4796,7 +4832,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="307"/>
+      <c r="A72" s="313"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4808,7 +4844,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="307"/>
+      <c r="A73" s="313"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4820,7 +4856,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="307"/>
+      <c r="A74" s="313"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4832,7 +4868,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="307"/>
+      <c r="A75" s="313"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4844,7 +4880,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="307"/>
+      <c r="A76" s="313"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4856,7 +4892,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="307"/>
+      <c r="A77" s="313"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4868,7 +4904,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="307"/>
+      <c r="A78" s="313"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4880,7 +4916,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="307"/>
+      <c r="A79" s="313"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4892,7 +4928,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="307"/>
+      <c r="A80" s="313"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4904,7 +4940,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="307"/>
+      <c r="A81" s="313"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4916,7 +4952,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="307"/>
+      <c r="A82" s="313"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4928,7 +4964,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="307"/>
+      <c r="A83" s="313"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4985,33 +5021,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="306"/>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
+      <c r="A1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="307"/>
-      <c r="B2" s="304" t="s">
+      <c r="A2" s="313"/>
+      <c r="B2" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="307"/>
-      <c r="B3" s="305" t="s">
+      <c r="A3" s="313"/>
+      <c r="B3" s="311" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="307"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5029,17 +5065,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="307"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="268">
+      <c r="C5" s="267">
         <v>21038</v>
       </c>
-      <c r="D5" s="268">
+      <c r="D5" s="267">
         <v>0</v>
       </c>
-      <c r="E5" s="269">
+      <c r="E5" s="268">
         <f>C5-D5</f>
         <v>21038</v>
       </c>
@@ -5047,17 +5083,17 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="307"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="268">
+      <c r="C6" s="267">
         <v>250000</v>
       </c>
-      <c r="D6" s="300">
+      <c r="D6" s="299">
         <v>250000</v>
       </c>
-      <c r="E6" s="270">
+      <c r="E6" s="269">
         <f t="shared" ref="E6:E69" si="0">E5+C6-D6</f>
         <v>21038</v>
       </c>
@@ -5065,17 +5101,17 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="307"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="268">
+      <c r="C7" s="267">
         <v>300000</v>
       </c>
-      <c r="D7" s="300">
+      <c r="D7" s="299">
         <v>300000</v>
       </c>
-      <c r="E7" s="270">
+      <c r="E7" s="269">
         <f t="shared" si="0"/>
         <v>21038</v>
       </c>
@@ -5083,17 +5119,17 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="307"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="268">
+      <c r="C8" s="267">
         <v>0</v>
       </c>
-      <c r="D8" s="268">
+      <c r="D8" s="267">
         <v>0</v>
       </c>
-      <c r="E8" s="270">
+      <c r="E8" s="269">
         <f>E7+C8-D8</f>
         <v>21038</v>
       </c>
@@ -5101,17 +5137,17 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="307"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="268">
+      <c r="C9" s="267">
         <v>1700000</v>
       </c>
-      <c r="D9" s="300">
+      <c r="D9" s="299">
         <v>1700000</v>
       </c>
-      <c r="E9" s="270">
+      <c r="E9" s="269">
         <f t="shared" si="0"/>
         <v>21038</v>
       </c>
@@ -5119,17 +5155,17 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="307"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="271">
+      <c r="C10" s="270">
         <v>250000</v>
       </c>
-      <c r="D10" s="271">
+      <c r="D10" s="270">
         <v>250000</v>
       </c>
-      <c r="E10" s="270">
+      <c r="E10" s="269">
         <f t="shared" si="0"/>
         <v>21038</v>
       </c>
@@ -5137,17 +5173,17 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="307"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="268">
+      <c r="C11" s="267">
         <v>200000</v>
       </c>
-      <c r="D11" s="268">
+      <c r="D11" s="267">
         <v>200000</v>
       </c>
-      <c r="E11" s="270">
+      <c r="E11" s="269">
         <f t="shared" si="0"/>
         <v>21038</v>
       </c>
@@ -5155,17 +5191,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="307"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="268">
+      <c r="C12" s="267">
         <v>100000</v>
       </c>
-      <c r="D12" s="268">
+      <c r="D12" s="267">
         <v>0</v>
       </c>
-      <c r="E12" s="270">
+      <c r="E12" s="269">
         <f>E11+C12-D12</f>
         <v>121038</v>
       </c>
@@ -5173,17 +5209,17 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="307"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="268">
+      <c r="C13" s="267">
         <v>590000</v>
       </c>
-      <c r="D13" s="268">
+      <c r="D13" s="267">
         <v>700000</v>
       </c>
-      <c r="E13" s="270">
+      <c r="E13" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5191,17 +5227,17 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="307"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="268">
+      <c r="C14" s="267">
         <v>0</v>
       </c>
-      <c r="D14" s="268">
+      <c r="D14" s="267">
         <v>0</v>
       </c>
-      <c r="E14" s="270">
+      <c r="E14" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5209,17 +5245,17 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="307"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="268">
+      <c r="C15" s="267">
         <v>700000</v>
       </c>
-      <c r="D15" s="268">
+      <c r="D15" s="267">
         <v>700000</v>
       </c>
-      <c r="E15" s="270">
+      <c r="E15" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5227,17 +5263,17 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="307"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="268">
+      <c r="C16" s="267">
         <v>0</v>
       </c>
-      <c r="D16" s="268">
+      <c r="D16" s="267">
         <v>0</v>
       </c>
-      <c r="E16" s="270">
+      <c r="E16" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5245,11 +5281,11 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="307"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="270">
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5257,11 +5293,11 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="307"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="270">
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="269">
         <f>E17+C18-D18</f>
         <v>11038</v>
       </c>
@@ -5269,11 +5305,11 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="307"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="268"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="270">
+      <c r="C19" s="267"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5281,11 +5317,11 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="307"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="270">
+      <c r="C20" s="267"/>
+      <c r="D20" s="267"/>
+      <c r="E20" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5293,23 +5329,23 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="307"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="268"/>
-      <c r="D21" s="268"/>
-      <c r="E21" s="270">
+      <c r="C21" s="267"/>
+      <c r="D21" s="267"/>
+      <c r="E21" s="269">
         <f>E20+C21-D21</f>
         <v>11038</v>
       </c>
-      <c r="F21" s="285"/>
+      <c r="F21" s="284"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="307"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="268"/>
-      <c r="D22" s="268"/>
-      <c r="E22" s="270">
+      <c r="C22" s="267"/>
+      <c r="D22" s="267"/>
+      <c r="E22" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5317,11 +5353,11 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="307"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="268"/>
-      <c r="D23" s="268"/>
-      <c r="E23" s="270">
+      <c r="C23" s="267"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="269">
         <f>E22+C23-D23</f>
         <v>11038</v>
       </c>
@@ -5329,11 +5365,11 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="307"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="268"/>
-      <c r="D24" s="268"/>
-      <c r="E24" s="270">
+      <c r="C24" s="267"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5341,11 +5377,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="307"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="270">
+      <c r="C25" s="267"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5353,11 +5389,11 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="307"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="268"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="270">
+      <c r="C26" s="267"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5365,11 +5401,11 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="307"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="268"/>
-      <c r="D27" s="268"/>
-      <c r="E27" s="270">
+      <c r="C27" s="267"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5377,11 +5413,11 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="307"/>
+      <c r="A28" s="313"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="268"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="270">
+      <c r="C28" s="267"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="269">
         <f>E27+C28-D28</f>
         <v>11038</v>
       </c>
@@ -5389,11 +5425,11 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="307"/>
+      <c r="A29" s="313"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="268"/>
-      <c r="E29" s="270">
+      <c r="C29" s="267"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5401,11 +5437,11 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="307"/>
+      <c r="A30" s="313"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="270">
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5413,11 +5449,11 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="307"/>
+      <c r="A31" s="313"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="270">
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5425,11 +5461,11 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="307"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="268"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="270">
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="269">
         <f>E31+C32-D32</f>
         <v>11038</v>
       </c>
@@ -5437,11 +5473,11 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="307"/>
+      <c r="A33" s="313"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="270">
+      <c r="C33" s="267"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5449,11 +5485,11 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="307"/>
+      <c r="A34" s="313"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="268"/>
-      <c r="D34" s="268"/>
-      <c r="E34" s="270">
+      <c r="C34" s="267"/>
+      <c r="D34" s="267"/>
+      <c r="E34" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5461,11 +5497,11 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="307"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="268"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="270">
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5473,11 +5509,11 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="307"/>
+      <c r="A36" s="313"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="268"/>
-      <c r="D36" s="268"/>
-      <c r="E36" s="270">
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5485,11 +5521,11 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="307"/>
+      <c r="A37" s="313"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="268"/>
-      <c r="D37" s="268"/>
-      <c r="E37" s="270">
+      <c r="C37" s="267"/>
+      <c r="D37" s="267"/>
+      <c r="E37" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5497,11 +5533,11 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="307"/>
+      <c r="A38" s="313"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="270">
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5509,11 +5545,11 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="307"/>
+      <c r="A39" s="313"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="268"/>
-      <c r="D39" s="268"/>
-      <c r="E39" s="270">
+      <c r="C39" s="267"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5521,11 +5557,11 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="307"/>
+      <c r="A40" s="313"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="268"/>
-      <c r="D40" s="268"/>
-      <c r="E40" s="270">
+      <c r="C40" s="267"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5533,11 +5569,11 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="307"/>
+      <c r="A41" s="313"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="268"/>
-      <c r="D41" s="268"/>
-      <c r="E41" s="270">
+      <c r="C41" s="267"/>
+      <c r="D41" s="267"/>
+      <c r="E41" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5545,11 +5581,11 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="307"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="268"/>
-      <c r="D42" s="268"/>
-      <c r="E42" s="270">
+      <c r="C42" s="267"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5557,11 +5593,11 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="307"/>
+      <c r="A43" s="313"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="268"/>
-      <c r="D43" s="268"/>
-      <c r="E43" s="270">
+      <c r="C43" s="267"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5569,11 +5605,11 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="307"/>
+      <c r="A44" s="313"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="268"/>
-      <c r="D44" s="268"/>
-      <c r="E44" s="270">
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5581,11 +5617,11 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="307"/>
+      <c r="A45" s="313"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="268"/>
-      <c r="D45" s="268"/>
-      <c r="E45" s="270">
+      <c r="C45" s="267"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5593,11 +5629,11 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="307"/>
+      <c r="A46" s="313"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="268"/>
-      <c r="D46" s="268"/>
-      <c r="E46" s="270">
+      <c r="C46" s="267"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5605,11 +5641,11 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="307"/>
+      <c r="A47" s="313"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="268"/>
-      <c r="D47" s="268"/>
-      <c r="E47" s="270">
+      <c r="C47" s="267"/>
+      <c r="D47" s="267"/>
+      <c r="E47" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5617,11 +5653,11 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="307"/>
+      <c r="A48" s="313"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="268"/>
-      <c r="D48" s="268"/>
-      <c r="E48" s="270">
+      <c r="C48" s="267"/>
+      <c r="D48" s="267"/>
+      <c r="E48" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5629,11 +5665,11 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="307"/>
+      <c r="A49" s="313"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="268"/>
-      <c r="D49" s="268"/>
-      <c r="E49" s="270">
+      <c r="C49" s="267"/>
+      <c r="D49" s="267"/>
+      <c r="E49" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5641,11 +5677,11 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="307"/>
+      <c r="A50" s="313"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="268"/>
-      <c r="D50" s="268"/>
-      <c r="E50" s="270">
+      <c r="C50" s="267"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5653,11 +5689,11 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="307"/>
+      <c r="A51" s="313"/>
       <c r="B51" s="26"/>
-      <c r="C51" s="268"/>
-      <c r="D51" s="268"/>
-      <c r="E51" s="270">
+      <c r="C51" s="267"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5665,11 +5701,11 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="307"/>
+      <c r="A52" s="313"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="268"/>
-      <c r="D52" s="268"/>
-      <c r="E52" s="270">
+      <c r="C52" s="267"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5677,11 +5713,11 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="307"/>
+      <c r="A53" s="313"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="268"/>
-      <c r="D53" s="268"/>
-      <c r="E53" s="270">
+      <c r="C53" s="267"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5689,11 +5725,11 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="307"/>
+      <c r="A54" s="313"/>
       <c r="B54" s="26"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="268"/>
-      <c r="E54" s="270">
+      <c r="C54" s="267"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5701,275 +5737,275 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="307"/>
+      <c r="A55" s="313"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="268"/>
-      <c r="D55" s="268"/>
-      <c r="E55" s="270">
+      <c r="C55" s="267"/>
+      <c r="D55" s="267"/>
+      <c r="E55" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="307"/>
+      <c r="A56" s="313"/>
       <c r="B56" s="26"/>
-      <c r="C56" s="268"/>
-      <c r="D56" s="268"/>
-      <c r="E56" s="270">
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="307"/>
+      <c r="A57" s="313"/>
       <c r="B57" s="26"/>
-      <c r="C57" s="268"/>
-      <c r="D57" s="268"/>
-      <c r="E57" s="270">
+      <c r="C57" s="267"/>
+      <c r="D57" s="267"/>
+      <c r="E57" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="307"/>
+      <c r="A58" s="313"/>
       <c r="B58" s="26"/>
-      <c r="C58" s="268"/>
-      <c r="D58" s="268"/>
-      <c r="E58" s="270">
+      <c r="C58" s="267"/>
+      <c r="D58" s="267"/>
+      <c r="E58" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="307"/>
+      <c r="A59" s="313"/>
       <c r="B59" s="26"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="268"/>
-      <c r="E59" s="270">
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="307"/>
+      <c r="A60" s="313"/>
       <c r="B60" s="26"/>
-      <c r="C60" s="268"/>
-      <c r="D60" s="268"/>
-      <c r="E60" s="270">
+      <c r="C60" s="267"/>
+      <c r="D60" s="267"/>
+      <c r="E60" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="307"/>
+      <c r="A61" s="313"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="268"/>
-      <c r="D61" s="268"/>
-      <c r="E61" s="270">
+      <c r="C61" s="267"/>
+      <c r="D61" s="267"/>
+      <c r="E61" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="307"/>
+      <c r="A62" s="313"/>
       <c r="B62" s="26"/>
-      <c r="C62" s="268"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="270">
+      <c r="C62" s="267"/>
+      <c r="D62" s="267"/>
+      <c r="E62" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="307"/>
+      <c r="A63" s="313"/>
       <c r="B63" s="26"/>
-      <c r="C63" s="268"/>
-      <c r="D63" s="268"/>
-      <c r="E63" s="270">
+      <c r="C63" s="267"/>
+      <c r="D63" s="267"/>
+      <c r="E63" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="307"/>
+      <c r="A64" s="313"/>
       <c r="B64" s="26"/>
-      <c r="C64" s="268"/>
-      <c r="D64" s="268"/>
-      <c r="E64" s="270">
+      <c r="C64" s="267"/>
+      <c r="D64" s="267"/>
+      <c r="E64" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="307"/>
+      <c r="A65" s="313"/>
       <c r="B65" s="26"/>
-      <c r="C65" s="268"/>
-      <c r="D65" s="268"/>
-      <c r="E65" s="270">
+      <c r="C65" s="267"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="307"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="268"/>
-      <c r="D66" s="268"/>
-      <c r="E66" s="270">
+      <c r="C66" s="267"/>
+      <c r="D66" s="267"/>
+      <c r="E66" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="307"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="26"/>
-      <c r="C67" s="268"/>
-      <c r="D67" s="268"/>
-      <c r="E67" s="270">
+      <c r="C67" s="267"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="307"/>
+      <c r="A68" s="313"/>
       <c r="B68" s="26"/>
-      <c r="C68" s="268"/>
-      <c r="D68" s="268"/>
-      <c r="E68" s="270">
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="307"/>
+      <c r="A69" s="313"/>
       <c r="B69" s="26"/>
-      <c r="C69" s="268"/>
-      <c r="D69" s="268"/>
-      <c r="E69" s="270">
+      <c r="C69" s="267"/>
+      <c r="D69" s="267"/>
+      <c r="E69" s="269">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="307"/>
+      <c r="A70" s="313"/>
       <c r="B70" s="26"/>
-      <c r="C70" s="268"/>
-      <c r="D70" s="268"/>
-      <c r="E70" s="270">
+      <c r="C70" s="267"/>
+      <c r="D70" s="267"/>
+      <c r="E70" s="269">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
         <v>11038</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="307"/>
+      <c r="A71" s="313"/>
       <c r="B71" s="26"/>
-      <c r="C71" s="268"/>
-      <c r="D71" s="268"/>
-      <c r="E71" s="270">
+      <c r="C71" s="267"/>
+      <c r="D71" s="267"/>
+      <c r="E71" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="307"/>
+      <c r="A72" s="313"/>
       <c r="B72" s="26"/>
-      <c r="C72" s="268"/>
-      <c r="D72" s="268"/>
-      <c r="E72" s="270">
+      <c r="C72" s="267"/>
+      <c r="D72" s="267"/>
+      <c r="E72" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="307"/>
+      <c r="A73" s="313"/>
       <c r="B73" s="26"/>
-      <c r="C73" s="268"/>
-      <c r="D73" s="268"/>
-      <c r="E73" s="270">
+      <c r="C73" s="267"/>
+      <c r="D73" s="267"/>
+      <c r="E73" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="307"/>
+      <c r="A74" s="313"/>
       <c r="B74" s="26"/>
-      <c r="C74" s="268"/>
-      <c r="D74" s="268"/>
-      <c r="E74" s="270">
+      <c r="C74" s="267"/>
+      <c r="D74" s="267"/>
+      <c r="E74" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="307"/>
+      <c r="A75" s="313"/>
       <c r="B75" s="26"/>
-      <c r="C75" s="268"/>
-      <c r="D75" s="268"/>
-      <c r="E75" s="270">
+      <c r="C75" s="267"/>
+      <c r="D75" s="267"/>
+      <c r="E75" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="307"/>
+      <c r="A76" s="313"/>
       <c r="B76" s="26"/>
-      <c r="C76" s="268"/>
-      <c r="D76" s="268"/>
-      <c r="E76" s="270">
+      <c r="C76" s="267"/>
+      <c r="D76" s="267"/>
+      <c r="E76" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="307"/>
+      <c r="A77" s="313"/>
       <c r="B77" s="26"/>
-      <c r="C77" s="268"/>
-      <c r="D77" s="268"/>
-      <c r="E77" s="270">
+      <c r="C77" s="267"/>
+      <c r="D77" s="267"/>
+      <c r="E77" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="307"/>
+      <c r="A78" s="313"/>
       <c r="B78" s="26"/>
-      <c r="C78" s="268"/>
-      <c r="D78" s="268"/>
-      <c r="E78" s="270">
+      <c r="C78" s="267"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="307"/>
+      <c r="A79" s="313"/>
       <c r="B79" s="26"/>
-      <c r="C79" s="268"/>
-      <c r="D79" s="268"/>
-      <c r="E79" s="270">
+      <c r="C79" s="267"/>
+      <c r="D79" s="267"/>
+      <c r="E79" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
@@ -5977,11 +6013,11 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="307"/>
+      <c r="A80" s="313"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="268"/>
-      <c r="D80" s="268"/>
-      <c r="E80" s="270">
+      <c r="C80" s="267"/>
+      <c r="D80" s="267"/>
+      <c r="E80" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
@@ -5989,11 +6025,11 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="307"/>
+      <c r="A81" s="313"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="268"/>
-      <c r="D81" s="268"/>
-      <c r="E81" s="270">
+      <c r="C81" s="267"/>
+      <c r="D81" s="267"/>
+      <c r="E81" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
@@ -6001,11 +6037,11 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="307"/>
+      <c r="A82" s="313"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="268"/>
-      <c r="D82" s="268"/>
-      <c r="E82" s="270">
+      <c r="C82" s="267"/>
+      <c r="D82" s="267"/>
+      <c r="E82" s="269">
         <f t="shared" si="1"/>
         <v>11038</v>
       </c>
@@ -6013,17 +6049,17 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="307"/>
+      <c r="A83" s="313"/>
       <c r="B83" s="31"/>
-      <c r="C83" s="270">
+      <c r="C83" s="269">
         <f>SUM(C5:C72)</f>
         <v>4111038</v>
       </c>
-      <c r="D83" s="270">
+      <c r="D83" s="269">
         <f>SUM(D5:D77)</f>
         <v>4100000</v>
       </c>
-      <c r="E83" s="272">
+      <c r="E83" s="271">
         <f>E71</f>
         <v>11038</v>
       </c>
@@ -6071,67 +6107,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="316" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="317" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
+      <c r="B2" s="317"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="317"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="318" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="316"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="319"/>
+      <c r="M3" s="319"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="319"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="320"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6140,50 +6176,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="321" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="319" t="s">
+      <c r="B4" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="308" t="s">
+      <c r="D4" s="325" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308" t="s">
+      <c r="F4" s="325"/>
+      <c r="G4" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="308" t="s">
+      <c r="H4" s="325" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="308" t="s">
+      <c r="I4" s="325" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="308" t="s">
+      <c r="J4" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="308" t="s">
+      <c r="K4" s="325" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="308" t="s">
+      <c r="L4" s="325" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="308" t="s">
+      <c r="M4" s="325" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="308" t="s">
+      <c r="N4" s="325" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="310" t="s">
+      <c r="O4" s="314" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="327" t="s">
         <v>72</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6196,22 +6232,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="318"/>
-      <c r="B5" s="320"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="309"/>
-      <c r="O5" s="311"/>
-      <c r="P5" s="322"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="326"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="315"/>
+      <c r="P5" s="328"/>
       <c r="Q5" s="136" t="s">
         <v>47</v>
       </c>
@@ -7327,8 +7363,8 @@
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
     </row>
-    <row r="44" spans="1:19" s="282" customFormat="1">
-      <c r="A44" s="282" t="s">
+    <row r="44" spans="1:19" s="281" customFormat="1">
+      <c r="A44" s="281" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9266,6 +9302,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9282,9 +9321,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9298,8 +9334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9326,14 +9362,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="329"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="335"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9427,14 +9463,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="330" t="s">
+      <c r="A2" s="336" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="331"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="332"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="338"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9528,14 +9564,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="339" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="335"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -9629,7 +9665,7 @@
       <c r="CS3" s="147"/>
     </row>
     <row r="4" spans="1:97" ht="16.5" thickBot="1">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="273" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="215" t="s">
@@ -9647,7 +9683,7 @@
       <c r="F4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="273" t="s">
+      <c r="G4" s="272" t="s">
         <v>130</v>
       </c>
       <c r="H4" s="67"/>
@@ -12697,27 +12733,27 @@
       <c r="A33" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="275">
+      <c r="B33" s="274">
         <f>SUM(B5:B32)</f>
         <v>5294950</v>
       </c>
-      <c r="C33" s="276">
+      <c r="C33" s="275">
         <f>SUM(C5:C32)</f>
         <v>5130303</v>
       </c>
-      <c r="D33" s="275">
+      <c r="D33" s="274">
         <f>SUM(D5:D32)</f>
         <v>27887</v>
       </c>
-      <c r="E33" s="275">
+      <c r="E33" s="274">
         <f>SUM(E5:E32)</f>
         <v>5158190</v>
       </c>
-      <c r="F33" s="275">
+      <c r="F33" s="274">
         <f>B33-E33</f>
         <v>136760</v>
       </c>
-      <c r="G33" s="277"/>
+      <c r="G33" s="276"/>
       <c r="H33" s="148"/>
       <c r="I33" s="149"/>
       <c r="J33" s="150"/>
@@ -12910,12 +12946,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="325" t="s">
+      <c r="B35" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="325"/>
-      <c r="D35" s="325"/>
-      <c r="E35" s="325"/>
+      <c r="C35" s="331"/>
+      <c r="D35" s="331"/>
+      <c r="E35" s="331"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -13125,7 +13161,7 @@
       <c r="A37" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="302" t="s">
+      <c r="B37" s="301" t="s">
         <v>178</v>
       </c>
       <c r="C37" s="137" t="s">
@@ -13134,7 +13170,7 @@
       <c r="D37" s="217">
         <v>2000</v>
       </c>
-      <c r="E37" s="303" t="s">
+      <c r="E37" s="302" t="s">
         <v>180</v>
       </c>
       <c r="F37" s="143"/>
@@ -13796,10 +13832,10 @@
         <v>219</v>
       </c>
       <c r="F43" s="143"/>
-      <c r="G43" s="326"/>
-      <c r="H43" s="326"/>
-      <c r="I43" s="326"/>
-      <c r="J43" s="326"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="332"/>
+      <c r="J43" s="332"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -14122,14 +14158,14 @@
       <c r="A46" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="286" t="s">
+      <c r="B46" s="285" t="s">
         <v>114</v>
       </c>
       <c r="C46" s="137"/>
       <c r="D46" s="220">
         <v>490230</v>
       </c>
-      <c r="E46" s="287" t="s">
+      <c r="E46" s="286" t="s">
         <v>219</v>
       </c>
       <c r="F46" s="140"/>
@@ -17609,17 +17645,17 @@
       <c r="CS75" s="147"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="238" t="s">
+      <c r="A76" s="362" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="363" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="125"/>
-      <c r="D76" s="221">
+      <c r="C76" s="364"/>
+      <c r="D76" s="365">
         <v>16980</v>
       </c>
-      <c r="E76" s="189" t="s">
+      <c r="E76" s="367" t="s">
         <v>224</v>
       </c>
       <c r="F76" s="141"/>
@@ -17727,17 +17763,17 @@
       <c r="CS76" s="147"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="238" t="s">
+      <c r="A77" s="362" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="363" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="125"/>
-      <c r="D77" s="221">
+      <c r="C77" s="364"/>
+      <c r="D77" s="365">
         <v>10000</v>
       </c>
-      <c r="E77" s="188" t="s">
+      <c r="E77" s="366" t="s">
         <v>209</v>
       </c>
       <c r="F77" s="141"/>
@@ -18437,17 +18473,17 @@
       <c r="CS82" s="147"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="238" t="s">
+      <c r="A83" s="362" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="363" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="125"/>
-      <c r="D83" s="221">
+      <c r="C83" s="364"/>
+      <c r="D83" s="365">
         <v>7000</v>
       </c>
-      <c r="E83" s="188" t="s">
+      <c r="E83" s="366" t="s">
         <v>139</v>
       </c>
       <c r="F83" s="143"/>
@@ -18555,17 +18591,17 @@
       <c r="CS83" s="147"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="267" t="s">
+      <c r="A84" s="368" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="369" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="125"/>
-      <c r="D84" s="221">
+      <c r="C84" s="370"/>
+      <c r="D84" s="371">
         <v>30550</v>
       </c>
-      <c r="E84" s="188" t="s">
+      <c r="E84" s="372" t="s">
         <v>218</v>
       </c>
       <c r="F84" s="143"/>
@@ -18673,17 +18709,17 @@
       <c r="CS84" s="147"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="238" t="s">
+      <c r="A85" s="362" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="363" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="125"/>
-      <c r="D85" s="221">
+      <c r="C85" s="364"/>
+      <c r="D85" s="365">
         <v>7700</v>
       </c>
-      <c r="E85" s="188" t="s">
+      <c r="E85" s="366" t="s">
         <v>185</v>
       </c>
       <c r="F85" s="143"/>
@@ -22218,7 +22254,7 @@
       <c r="C118" s="125">
         <v>1755626210</v>
       </c>
-      <c r="D118" s="278">
+      <c r="D118" s="277">
         <v>23000</v>
       </c>
       <c r="E118" s="190" t="s">
@@ -22321,11 +22357,11 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="323" t="s">
+      <c r="A119" s="329" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="324"/>
-      <c r="C119" s="336"/>
+      <c r="B119" s="330"/>
+      <c r="C119" s="342"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
         <v>2513785</v>
@@ -22528,11 +22564,11 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="323" t="s">
+      <c r="A121" s="329" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="324"/>
-      <c r="C121" s="324"/>
+      <c r="B121" s="330"/>
+      <c r="C121" s="330"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
         <v>2513785</v>
@@ -33767,8 +33803,8 @@
   </sheetPr>
   <dimension ref="A1:Y218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33786,35 +33822,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="346" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="339"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="348"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="355" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="348"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="357"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="349" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="342"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="351"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33837,15 +33873,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="349" t="s">
+      <c r="A4" s="358" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="350"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="351" t="s">
+      <c r="B4" s="359"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="360" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="352"/>
+      <c r="E4" s="361"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -33882,7 +33918,7 @@
         <v>6642279.381099999</v>
       </c>
       <c r="F5" s="36"/>
-      <c r="G5" s="279"/>
+      <c r="G5" s="278"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -33917,7 +33953,7 @@
         <v>11038</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="280"/>
+      <c r="G6" s="279"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -33938,8 +33974,8 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="21.75">
-      <c r="A7" s="289"/>
-      <c r="B7" s="288"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="43"/>
       <c r="D7" s="41" t="s">
         <v>70</v>
@@ -33948,7 +33984,7 @@
         <v>393515.1763000004</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="280"/>
+      <c r="G7" s="279"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -33969,8 +34005,8 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="21.75">
-      <c r="A8" s="299"/>
-      <c r="B8" s="288"/>
+      <c r="A8" s="298"/>
+      <c r="B8" s="287"/>
       <c r="C8" s="41"/>
       <c r="D8" s="252"/>
       <c r="E8" s="258"/>
@@ -33999,7 +34035,7 @@
       <c r="A9" s="40"/>
       <c r="B9" s="261"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="283"/>
+      <c r="D9" s="282"/>
       <c r="E9" s="259"/>
       <c r="F9" s="7"/>
       <c r="G9" s="118"/>
@@ -34094,7 +34130,7 @@
       <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="1:25" ht="21.75">
-      <c r="A12" s="298" t="s">
+      <c r="A12" s="297" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="262">
@@ -34132,7 +34168,7 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="21.75">
-      <c r="A13" s="301"/>
+      <c r="A13" s="300"/>
       <c r="B13" s="261"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -34159,10 +34195,10 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="353" t="s">
+      <c r="A14" s="303" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="354">
+      <c r="B14" s="304">
         <v>1500000</v>
       </c>
       <c r="C14" s="42"/>
@@ -34259,13 +34295,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="22.5">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="345"/>
+      <c r="B17" s="353"/>
+      <c r="C17" s="353"/>
+      <c r="D17" s="353"/>
+      <c r="E17" s="354"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -34295,10 +34331,10 @@
         <v>78750</v>
       </c>
       <c r="C18" s="41"/>
-      <c r="D18" s="290" t="s">
+      <c r="D18" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="291">
+      <c r="E18" s="290">
         <v>490230</v>
       </c>
       <c r="F18" s="5"/>
@@ -34330,10 +34366,10 @@
         <v>20000</v>
       </c>
       <c r="C19" s="41"/>
-      <c r="D19" s="290" t="s">
+      <c r="D19" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="291">
+      <c r="E19" s="290">
         <v>200000</v>
       </c>
       <c r="G19" s="17"/>
@@ -34364,10 +34400,10 @@
         <v>19600</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="294" t="s">
+      <c r="D20" s="293" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="295">
+      <c r="E20" s="294">
         <v>230000</v>
       </c>
       <c r="H20" s="7"/>
@@ -34397,10 +34433,10 @@
         <v>22000</v>
       </c>
       <c r="C21" s="41"/>
-      <c r="D21" s="290" t="s">
+      <c r="D21" s="289" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="291">
+      <c r="E21" s="290">
         <v>200000</v>
       </c>
       <c r="H21" s="7"/>
@@ -34430,10 +34466,10 @@
         <v>30000</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="290" t="s">
+      <c r="D22" s="289" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="291">
+      <c r="E22" s="290">
         <v>185000</v>
       </c>
       <c r="G22" s="35"/>
@@ -34464,10 +34500,10 @@
         <v>290000</v>
       </c>
       <c r="C23" s="130"/>
-      <c r="D23" s="290" t="s">
+      <c r="D23" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="291">
+      <c r="E23" s="290">
         <v>54500</v>
       </c>
       <c r="G23" s="35"/>
@@ -34498,10 +34534,10 @@
         <v>30550</v>
       </c>
       <c r="C24" s="130"/>
-      <c r="D24" s="290" t="s">
+      <c r="D24" s="289" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="291">
+      <c r="E24" s="290">
         <v>70000</v>
       </c>
       <c r="G24" s="35"/>
@@ -34532,10 +34568,10 @@
         <v>30000</v>
       </c>
       <c r="C25" s="130"/>
-      <c r="D25" s="290" t="s">
+      <c r="D25" s="289" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="291">
+      <c r="E25" s="290">
         <v>34000</v>
       </c>
       <c r="G25" s="16"/>
@@ -34559,17 +34595,17 @@
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="21.75">
-      <c r="A26" s="358" t="s">
+      <c r="A26" s="305" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="359">
+      <c r="B26" s="306">
         <v>20000</v>
       </c>
-      <c r="C26" s="360"/>
-      <c r="D26" s="361" t="s">
+      <c r="C26" s="307"/>
+      <c r="D26" s="308" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="362">
+      <c r="E26" s="309">
         <v>32000</v>
       </c>
       <c r="G26" s="16"/>
@@ -34593,17 +34629,17 @@
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A27" s="296" t="s">
+      <c r="A27" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="297">
+      <c r="B27" s="296">
         <v>79590</v>
       </c>
       <c r="C27" s="131"/>
-      <c r="D27" s="292" t="s">
+      <c r="D27" s="291" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="293">
+      <c r="E27" s="292">
         <v>40000</v>
       </c>
       <c r="H27" s="7"/>
@@ -34626,14 +34662,14 @@
       <c r="Y27" s="7"/>
     </row>
     <row r="28" spans="1:25" ht="21" thickBot="1">
-      <c r="A28" s="355" t="s">
+      <c r="A28" s="343" t="s">
         <v>222</v>
       </c>
-      <c r="B28" s="356"/>
-      <c r="C28" s="356"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="357"/>
-      <c r="G28" s="281"/>
+      <c r="B28" s="344"/>
+      <c r="C28" s="344"/>
+      <c r="D28" s="344"/>
+      <c r="E28" s="345"/>
+      <c r="G28" s="280"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
